--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Npnt</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H2">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I2">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J2">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>399.6075863865311</v>
+        <v>339.467141925856</v>
       </c>
       <c r="R2">
-        <v>3596.46827747878</v>
+        <v>3055.204277332704</v>
       </c>
       <c r="S2">
-        <v>0.1427352020341062</v>
+        <v>0.1396843135690518</v>
       </c>
       <c r="T2">
-        <v>0.1427352020341061</v>
+        <v>0.1396843135690518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H3">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I3">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J3">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>421.201198899745</v>
+        <v>367.297490645883</v>
       </c>
       <c r="R3">
-        <v>3790.810790097705</v>
+        <v>3305.677415812946</v>
       </c>
       <c r="S3">
-        <v>0.1504481903499448</v>
+        <v>0.1511359761225763</v>
       </c>
       <c r="T3">
-        <v>0.1504481903499448</v>
+        <v>0.1511359761225763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H4">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I4">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J4">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>272.1335042709127</v>
+        <v>158.337132632021</v>
       </c>
       <c r="R4">
-        <v>2449.201538438215</v>
+        <v>1425.034193688189</v>
       </c>
       <c r="S4">
-        <v>0.09720293616945018</v>
+        <v>0.06515273778404877</v>
       </c>
       <c r="T4">
-        <v>0.09720293616945018</v>
+        <v>0.06515273778404879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H5">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I5">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J5">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>145.8067025903278</v>
+        <v>124.337784778459</v>
       </c>
       <c r="R5">
-        <v>1312.26032331295</v>
+        <v>1119.040063006131</v>
       </c>
       <c r="S5">
-        <v>0.05208046558962608</v>
+        <v>0.05116264867033566</v>
       </c>
       <c r="T5">
-        <v>0.05208046558962608</v>
+        <v>0.05116264867033567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H6">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I6">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J6">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>212.2573333071094</v>
+        <v>148.457540858424</v>
       </c>
       <c r="R6">
-        <v>1910.315999763985</v>
+        <v>1336.117867725816</v>
       </c>
       <c r="S6">
-        <v>0.07581586132227654</v>
+        <v>0.06108747247616586</v>
       </c>
       <c r="T6">
-        <v>0.07581586132227652</v>
+        <v>0.06108747247616587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.81837</v>
       </c>
       <c r="I7">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J7">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>99.22965425685778</v>
+        <v>96.66675387260446</v>
       </c>
       <c r="R7">
-        <v>893.0668883117199</v>
+        <v>870.00078485344</v>
       </c>
       <c r="S7">
-        <v>0.03544368332994312</v>
+        <v>0.03977654238651594</v>
       </c>
       <c r="T7">
-        <v>0.03544368332994312</v>
+        <v>0.03977654238651594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.81837</v>
       </c>
       <c r="I8">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J8">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>104.59173139663</v>
@@ -948,10 +948,10 @@
         <v>941.3255825696699</v>
       </c>
       <c r="S8">
-        <v>0.03735895518648775</v>
+        <v>0.04303752086948043</v>
       </c>
       <c r="T8">
-        <v>0.03735895518648775</v>
+        <v>0.04303752086948043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.81837</v>
       </c>
       <c r="I9">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J9">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>67.57557779293444</v>
+        <v>45.08812411769889</v>
       </c>
       <c r="R9">
-        <v>608.18020013641</v>
+        <v>405.79311705929</v>
       </c>
       <c r="S9">
-        <v>0.02413721380033104</v>
+        <v>0.01855291098798765</v>
       </c>
       <c r="T9">
-        <v>0.02413721380033104</v>
+        <v>0.01855291098798766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.81837</v>
       </c>
       <c r="I10">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J10">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>36.20639141814444</v>
+        <v>35.40646075510112</v>
       </c>
       <c r="R10">
-        <v>325.8575227633</v>
+        <v>318.65814679591</v>
       </c>
       <c r="S10">
-        <v>0.01293250371126828</v>
+        <v>0.01456908948073119</v>
       </c>
       <c r="T10">
-        <v>0.01293250371126828</v>
+        <v>0.01456908948073119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.81837</v>
       </c>
       <c r="I11">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J11">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>52.70726211182112</v>
+        <v>42.27480892930667</v>
       </c>
       <c r="R11">
-        <v>474.36535900639</v>
+        <v>380.47328036376</v>
       </c>
       <c r="S11">
-        <v>0.01882642362779964</v>
+        <v>0.01739528495468578</v>
       </c>
       <c r="T11">
-        <v>0.01882642362779964</v>
+        <v>0.01739528495468578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H12">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I12">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J12">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>272.1852548474053</v>
+        <v>222.0767652508836</v>
       </c>
       <c r="R12">
-        <v>2449.667293626648</v>
+        <v>1998.690887257952</v>
       </c>
       <c r="S12">
-        <v>0.09722142087605405</v>
+        <v>0.0913803920394759</v>
       </c>
       <c r="T12">
-        <v>0.09722142087605404</v>
+        <v>0.0913803920394759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H13">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I13">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J13">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>286.893341293242</v>
+        <v>240.283163032079</v>
       </c>
       <c r="R13">
-        <v>2582.040071639178</v>
+        <v>2162.548467288711</v>
       </c>
       <c r="S13">
-        <v>0.1024749790213465</v>
+        <v>0.09887198065746017</v>
       </c>
       <c r="T13">
-        <v>0.1024749790213464</v>
+        <v>0.09887198065746017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H14">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I14">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J14">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>185.3586611862993</v>
+        <v>103.5829212645841</v>
       </c>
       <c r="R14">
-        <v>1668.227950676694</v>
+        <v>932.2462913812569</v>
       </c>
       <c r="S14">
-        <v>0.0662079671520711</v>
+        <v>0.04262241456488524</v>
       </c>
       <c r="T14">
-        <v>0.0662079671520711</v>
+        <v>0.04262241456488525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H15">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I15">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J15">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>99.31351619691331</v>
+        <v>81.34081220765589</v>
       </c>
       <c r="R15">
-        <v>893.8216457722198</v>
+        <v>732.067309868903</v>
       </c>
       <c r="S15">
-        <v>0.03547363784373261</v>
+        <v>0.0334702070248</v>
       </c>
       <c r="T15">
-        <v>0.03547363784373261</v>
+        <v>0.0334702070248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.392473666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.177421</v>
+      </c>
+      <c r="I16">
+        <v>0.306307943890216</v>
+      </c>
+      <c r="J16">
+        <v>0.306307943890216</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>69.746216</v>
+      </c>
+      <c r="N16">
+        <v>209.238648</v>
+      </c>
+      <c r="O16">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P16">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q16">
+        <v>97.11976912964533</v>
+      </c>
+      <c r="R16">
+        <v>874.077922166808</v>
+      </c>
+      <c r="S16">
+        <v>0.03996294960359465</v>
+      </c>
+      <c r="T16">
+        <v>0.03996294960359466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.25657</v>
+      </c>
+      <c r="I17">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J17">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N17">
+        <v>478.450912</v>
+      </c>
+      <c r="O17">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P17">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q17">
+        <v>66.80078472131557</v>
+      </c>
+      <c r="R17">
+        <v>601.20706249184</v>
+      </c>
+      <c r="S17">
+        <v>0.02748726049518213</v>
+      </c>
+      <c r="T17">
+        <v>0.02748726049518213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.25657</v>
+      </c>
+      <c r="I18">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J18">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P18">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q18">
+        <v>72.27727685843</v>
+      </c>
+      <c r="R18">
+        <v>650.4954917258699</v>
+      </c>
+      <c r="S18">
+        <v>0.02974073351351102</v>
+      </c>
+      <c r="T18">
+        <v>0.02974073351351102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.662586</v>
-      </c>
-      <c r="H16">
-        <v>4.987757999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.3530185648787664</v>
-      </c>
-      <c r="J16">
-        <v>0.3530185648787664</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>86.95798233333333</v>
-      </c>
-      <c r="N16">
-        <v>260.873947</v>
-      </c>
-      <c r="O16">
-        <v>0.1462828449356384</v>
-      </c>
-      <c r="P16">
-        <v>0.1462828449356383</v>
-      </c>
-      <c r="Q16">
-        <v>144.5751240156473</v>
-      </c>
-      <c r="R16">
-        <v>1301.176116140826</v>
-      </c>
-      <c r="S16">
-        <v>0.05164055998556218</v>
-      </c>
-      <c r="T16">
-        <v>0.05164055998556216</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.25657</v>
+      </c>
+      <c r="I19">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J19">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N19">
+        <v>223.163117</v>
+      </c>
+      <c r="O19">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P19">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q19">
+        <v>31.15778643652111</v>
+      </c>
+      <c r="R19">
+        <v>280.42007792869</v>
+      </c>
+      <c r="S19">
+        <v>0.01282084029112647</v>
+      </c>
+      <c r="T19">
+        <v>0.01282084029112648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.25657</v>
+      </c>
+      <c r="I20">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J20">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N20">
+        <v>175.243843</v>
+      </c>
+      <c r="O20">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P20">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q20">
+        <v>24.46735064427889</v>
+      </c>
+      <c r="R20">
+        <v>220.20615579851</v>
+      </c>
+      <c r="S20">
+        <v>0.0100678524001179</v>
+      </c>
+      <c r="T20">
+        <v>0.0100678524001179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.25657</v>
+      </c>
+      <c r="I21">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J21">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.746216</v>
+      </c>
+      <c r="N21">
+        <v>209.238648</v>
+      </c>
+      <c r="O21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q21">
+        <v>29.21366754637333</v>
+      </c>
+      <c r="R21">
+        <v>262.92300791736</v>
+      </c>
+      <c r="S21">
+        <v>0.01202087210826702</v>
+      </c>
+      <c r="T21">
+        <v>0.01202087210826702</v>
       </c>
     </row>
   </sheetData>
